--- a/tp1_fisica/estudio_aceleraciones_m44_papel.xlsx
+++ b/tp1_fisica/estudio_aceleraciones_m44_papel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>m</t>
   </si>
@@ -22,12 +22,6 @@
     <t>t, arduino</t>
   </si>
   <si>
-    <t>1000,1306.00</t>
-  </si>
-  <si>
-    <t>1250,1232.00</t>
-  </si>
-  <si>
     <t>1500,1214.00</t>
   </si>
   <si>
@@ -43,12 +37,6 @@
     <t>2500,3068.00</t>
   </si>
   <si>
-    <t>2750,3010.00</t>
-  </si>
-  <si>
-    <t>500,1214.00</t>
-  </si>
-  <si>
     <t>750,1195.00</t>
   </si>
   <si>
@@ -62,9 +50,6 @@
   </si>
   <si>
     <t>1750,2961.00</t>
-  </si>
-  <si>
-    <t>2000,2980.00</t>
   </si>
   <si>
     <t>1000,385.00</t>
@@ -149,12 +134,24 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF34A853"/>
+        <bgColor rgb="FF34A853"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -163,14 +160,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -405,7 +408,7 @@
         <f>22.29+ 22.07</f>
         <v>44.36</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>111.03</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -441,8 +444,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="4">
+        <f>22.07+ 22.15</f>
+        <v>44.22</v>
+      </c>
+      <c r="B7" s="3">
+        <f>22.29+5.36 + 111.03</f>
+        <v>138.68</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -462,14 +471,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
-        <f>22.07+ 22.15</f>
-        <v>44.22</v>
-      </c>
-      <c r="B10" s="2">
-        <f>22.29+5.36 + 111.03</f>
-        <v>138.68</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
@@ -482,8 +485,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="2">
+        <f> 22.15+ 22.07</f>
+        <v>44.22</v>
+      </c>
+      <c r="B12" s="3">
+        <f>71.6+ 22.29+ 5.36 + 111.03</f>
+        <v>210.28</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
@@ -517,14 +526,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
-        <f> 22.15+ 22.07</f>
-        <v>44.22</v>
-      </c>
-      <c r="B17" s="2">
-        <f>71.6+ 22.29+ 5.36 + 111.03</f>
-        <v>210.28</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
@@ -551,8 +554,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="3">
+        <f> 22.15+ 22.07</f>
+        <v>44.22</v>
+      </c>
+      <c r="B21" s="3">
+        <f>71.6+ 72.184+ 22.29+ 5.36 + 111.03</f>
+        <v>282.464</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>22</v>
       </c>
@@ -586,14 +595,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
-        <f> 22.15+ 22.07</f>
-        <v>44.22</v>
-      </c>
-      <c r="B26" s="2">
-        <f>71.6+ 72.184+ 22.29+ 5.36 + 111.03</f>
-        <v>282.464</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
@@ -647,41 +650,6 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
